--- a/data/edges.xlsx
+++ b/data/edges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u1123114/Documents/projects/kinspace/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF9C83-BB29-A549-BA25-45BB28A2452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE1FF57-3E6E-1C4F-A920-A7D935A9951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{9787F85C-D41C-CC46-B8BC-B2B5E5606177}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19400" activeTab="5" xr2:uid="{9787F85C-D41C-CC46-B8BC-B2B5E5606177}"/>
   </bookViews>
   <sheets>
     <sheet name="g0" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,15 @@
     <sheet name="niblings" sheetId="3" r:id="rId3"/>
     <sheet name="g1" sheetId="4" r:id="rId4"/>
     <sheet name="g2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">g0!$A$1:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'g1'!$A$1:$G$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'g2'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">siblings!$A$1:$G$106</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="407">
   <si>
     <t>from</t>
   </si>
@@ -1620,10 +1627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E7BD42-57FB-6D4E-AF53-A7FDDB06A027}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1687,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -1874,7 +1882,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -1888,7 +1896,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -1925,7 +1933,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>202</v>
       </c>
@@ -1953,7 +1961,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -2032,7 +2040,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -2129,7 +2137,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -2171,7 +2179,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>203</v>
       </c>
@@ -2185,7 +2193,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>203</v>
       </c>
@@ -2213,7 +2221,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>203</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>203</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -2269,7 +2277,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -2306,7 +2314,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -2348,7 +2356,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>204</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -2418,7 +2426,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -2432,7 +2440,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>205</v>
       </c>
@@ -2483,7 +2491,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>205</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -2534,7 +2542,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -2548,7 +2556,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>205</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>205</v>
       </c>
@@ -2576,7 +2584,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>205</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>205</v>
       </c>
@@ -2604,7 +2612,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>206</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>206</v>
       </c>
@@ -2632,7 +2640,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>206</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -2734,7 +2742,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -2748,7 +2756,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -2762,7 +2770,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -2776,7 +2784,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -2790,7 +2798,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -2804,7 +2812,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>207</v>
       </c>
@@ -2818,7 +2826,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -2846,7 +2854,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -2860,7 +2868,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -2874,7 +2882,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>208</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -2902,7 +2910,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>208</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>208</v>
       </c>
@@ -2930,7 +2938,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>208</v>
       </c>
@@ -2958,7 +2966,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -2986,7 +2994,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -3014,7 +3022,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>209</v>
       </c>
@@ -3028,7 +3036,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>210</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>210</v>
       </c>
@@ -3093,7 +3101,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>210</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>210</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>211</v>
       </c>
@@ -3135,7 +3143,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>211</v>
       </c>
@@ -3149,7 +3157,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>211</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>211</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -3191,7 +3199,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>212</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>212</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>213</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -3247,7 +3255,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -3262,16 +3270,29 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G106" xr:uid="{51E7BD42-57FB-6D4E-AF53-A7FDDB06A027}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Gender"/>
+        <filter val="Add relative age"/>
+        <filter val="Add relative sex"/>
+        <filter val="Lose Gender"/>
+        <filter val="Lose Lineage"/>
+        <filter val="Lose relative age"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EFEBA5-5F6C-9741-9D9E-CF931C46615B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3376,7 +3397,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3391,7 +3412,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3406,7 +3427,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3445,7 +3466,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3460,7 +3481,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3475,7 +3496,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3490,7 +3511,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3529,7 +3550,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3568,7 +3589,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3642,7 +3663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -3656,7 +3677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3670,7 +3691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -3698,7 +3719,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -3712,7 +3733,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3749,7 +3770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -3763,7 +3784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -3777,7 +3798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -3791,7 +3812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -3828,7 +3849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -3865,7 +3886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3902,7 +3923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3916,7 +3937,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -3930,7 +3951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -3944,7 +3965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -3981,7 +4002,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3995,7 +4016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -4009,7 +4030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -4023,7 +4044,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4037,7 +4058,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -4051,7 +4072,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -4065,7 +4086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -4079,7 +4100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -4107,7 +4128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -4121,7 +4142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -4158,7 +4179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -4172,7 +4193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
@@ -4278,7 +4299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -4292,7 +4313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>35</v>
       </c>
@@ -4306,7 +4327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>35</v>
       </c>
@@ -4320,7 +4341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
@@ -4334,7 +4355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
@@ -4348,7 +4369,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>36</v>
       </c>
@@ -4362,7 +4383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
@@ -4376,7 +4397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>36</v>
       </c>
@@ -4390,7 +4411,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
@@ -4404,7 +4425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
@@ -4418,7 +4439,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +4453,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4446,7 +4467,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -4483,7 +4504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,7 +4518,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -4534,7 +4555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -4571,7 +4592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -4585,7 +4606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>38</v>
       </c>
@@ -4599,7 +4620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>38</v>
       </c>
@@ -4613,7 +4634,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>38</v>
       </c>
@@ -4627,7 +4648,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
@@ -4641,7 +4662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -4655,7 +4676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>38</v>
       </c>
@@ -4669,7 +4690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>38</v>
       </c>
@@ -4683,7 +4704,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
@@ -4697,7 +4718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>39</v>
       </c>
@@ -4711,7 +4732,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>39</v>
       </c>
@@ -4725,7 +4746,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>39</v>
       </c>
@@ -4762,7 +4783,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
@@ -4822,7 +4843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -4859,7 +4880,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -4873,7 +4894,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>41</v>
       </c>
@@ -4887,7 +4908,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>41</v>
       </c>
@@ -4901,7 +4922,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>41</v>
       </c>
@@ -4915,7 +4936,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>41</v>
       </c>
@@ -4929,7 +4950,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>42</v>
       </c>
@@ -4943,7 +4964,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>42</v>
       </c>
@@ -4957,7 +4978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
@@ -4971,7 +4992,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>43</v>
       </c>
@@ -4985,7 +5006,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>43</v>
       </c>
@@ -4999,7 +5020,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>44</v>
       </c>
@@ -5014,6 +5035,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G106" xr:uid="{B5EFEBA5-5F6C-9741-9D9E-CF931C46615B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Gender"/>
+        <filter val="Add relative Age"/>
+        <filter val="Add relative sex distinction"/>
+        <filter val="Add sex of speaker"/>
+        <filter val="Lose Gender"/>
+        <filter val="Lose Relative Age"/>
+        <filter val="Lose sex of speaker"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7119,10 +7153,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5EFB26-25EF-5242-98B7-D4E461A51C27}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7177,7 +7212,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -7191,7 +7226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -7205,7 +7240,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -7219,7 +7254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -7256,7 +7291,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -7339,7 +7374,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -7399,7 +7434,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -7505,7 +7540,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -7519,7 +7554,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -7556,7 +7591,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -7616,7 +7651,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -7653,7 +7688,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -7690,7 +7725,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -7704,7 +7739,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -7718,7 +7753,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -7732,7 +7767,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -7746,7 +7781,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -7760,7 +7795,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -7774,7 +7809,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -7788,7 +7823,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -7802,7 +7837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -7839,7 +7874,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -7853,7 +7888,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -7867,7 +7902,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -7881,7 +7916,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -7918,7 +7953,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -7932,7 +7967,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -7946,7 +7981,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -7960,7 +7995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -7974,7 +8009,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -7988,7 +8023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -8002,7 +8037,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -8016,7 +8051,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -8030,7 +8065,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -8044,7 +8079,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -8058,7 +8093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -8072,7 +8107,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -8086,7 +8121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -8100,7 +8135,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -8114,7 +8149,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -8128,7 +8163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -8142,7 +8177,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -8156,7 +8191,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -8170,7 +8205,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -8184,7 +8219,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -8198,7 +8233,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -8212,7 +8247,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -8226,7 +8261,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -8241,16 +8276,31 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G67" xr:uid="{3E5EFB26-25EF-5242-98B7-D4E461A51C27}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Gender"/>
+        <filter val="Add Lineage"/>
+        <filter val="Add Parallel"/>
+        <filter val="Add Parent"/>
+        <filter val="Add relative age"/>
+        <filter val="Lose Cross"/>
+        <filter val="Lose Parent"/>
+        <filter val="Lose relative age"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92F2A2D-A1FD-5E49-B6C6-6634E8B1ACCA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8347,6 +8397,326 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16" xr:uid="{A92F2A2D-A1FD-5E49-B6C6-6634E8B1ACCA}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Lineage"/>
+        <filter val="Lose Gender"/>
+        <filter val="Remove lineage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0DDA21-91A4-584B-8FEA-9662770BE4B9}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
